--- a/docs/IK.xlsx
+++ b/docs/IK.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\infinity-kingdom\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD58414E-4675-45DB-92A8-C2537062B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627C266C-A3E6-4460-AB0E-EC7EF193329A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8006114D-B570-4E84-8E1B-9DD3E5FE3F26}"/>
+    <workbookView xWindow="63615" yWindow="3720" windowWidth="16185" windowHeight="15840" xr2:uid="{8006114D-B570-4E84-8E1B-9DD3E5FE3F26}"/>
   </bookViews>
   <sheets>
     <sheet name="Castle" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CastleLevel">Castle!$A$1</definedName>
+    <definedName name="CastleLevel">Castle!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -108,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +118,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -145,12 +148,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -158,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,7 +243,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -248,6 +251,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,21 +266,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -281,49 +287,59 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,6 +362,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDFFFF"/>
+      <color rgb="FFFFFFDD"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -674,671 +697,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272B8A15-16CF-4706-9654-8675DBDB50E2}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="5" width="7.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="7.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="6" width="7.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="44">
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="31">
         <v>44</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="40" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="42" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="41">
+      <c r="D3" s="45">
         <v>0</v>
       </c>
-      <c r="D2" s="41">
+      <c r="E3" s="45">
         <v>1.4</v>
       </c>
-      <c r="E2" s="41">
+      <c r="F3" s="45">
         <v>0</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="42">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
         <v>6</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="42">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="30"/>
+      <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28">
         <v>6</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="42">
+      <c r="F5" s="28"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+      <c r="C6" s="29">
         <v>3</v>
       </c>
-      <c r="C5" s="41">
+      <c r="D6" s="28">
         <v>6</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="42">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
+      <c r="C7" s="29">
         <v>4</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28">
         <v>6</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="38">
-        <f>SUM(C2:C6)</f>
+      <c r="D8" s="46">
+        <f>SUM(D3:D7)</f>
         <v>6</v>
       </c>
-      <c r="D7" s="38">
-        <f>SUM(D2:D6)</f>
+      <c r="E8" s="46">
+        <f>SUM(E3:E7)</f>
         <v>13.4</v>
       </c>
-      <c r="E7" s="38">
-        <f>SUM(E2:E6)</f>
+      <c r="F8" s="46">
+        <f>SUM(F3:F7)</f>
         <v>6</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="G8" s="25"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="2:9" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="32">
         <f>CEILING(CastleLevel,5)+1+IF(CEILING(CastleLevel,5)+1-CastleLevel&gt;5,-5,0)</f>
         <v>46</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18" t="str">
-        <f>IF(SUM(C9:E9)&gt;0,SUM(C9:E9),"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f>IF(A9=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35" t="str">
+        <f t="shared" ref="H10:H33" si="0">IF(SUM(D10:F10)&gt;0,SUM(D10:F10),"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>IF(B10=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="str">
-        <f>IF(SUM(C10:E10)&gt;0,SUM(C10:E10),"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f>IF(A9=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>IF(B10=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="14" t="str">
-        <f>IF(SUM(C11:E11)&gt;0,SUM(C11:E11),"")</f>
-        <v/>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f>IF(A9=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f>IF(B10=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="14" t="str">
-        <f>IF(SUM(C12:E12)&gt;0,SUM(C12:E12),"")</f>
-        <v/>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f>IF(A9=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>IF(B10=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10" t="str">
-        <f>IF(SUM(C13:E13)&gt;0,SUM(C13:E13),"")</f>
-        <v/>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f>IF(A9=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>IF(B10=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="22">
         <f>CEILING(CastleLevel,5)+2+IF(CEILING(CastleLevel,5)+2-CastleLevel&gt;5,-5,0)</f>
         <v>47</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="C15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="31" t="str">
-        <f>IF(SUM(C14:E14)&gt;0,SUM(C14:E14),"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f>IF(A14=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>IF(B15=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="26" t="str">
-        <f>IF(SUM(C15:E15)&gt;0,SUM(C15:E15),"")</f>
-        <v/>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f>IF(A14=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f>IF(B15=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26" t="str">
-        <f>IF(SUM(C16:E16)&gt;0,SUM(C16:E16),"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f>IF(A14=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="28" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>IF(B15=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26" t="str">
-        <f>IF(SUM(C17:E17)&gt;0,SUM(C17:E17),"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f>IF(A14=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>IF(B15=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22" t="str">
-        <f>IF(SUM(C18:E18)&gt;0,SUM(C18:E18),"")</f>
-        <v/>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f>IF(A14=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>IF(B15=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="32">
         <f>CEILING(CastleLevel,5)+3+IF(CEILING(CastleLevel,5)+3-CastleLevel&gt;5,-5,0)</f>
         <v>48</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="C20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18" t="str">
-        <f>IF(SUM(C19:E19)&gt;0,SUM(C19:E19),"")</f>
-        <v/>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f>IF(A19=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>IF(B20=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14" t="str">
-        <f>IF(SUM(C20:E20)&gt;0,SUM(C20:E20),"")</f>
-        <v/>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f>IF(A19=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>IF(B20=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="14" t="str">
-        <f>IF(SUM(C21:E21)&gt;0,SUM(C21:E21),"")</f>
-        <v/>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f>IF(A19=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>IF(B20=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="14" t="str">
-        <f>IF(SUM(C22:E22)&gt;0,SUM(C22:E22),"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f>IF(A19=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>IF(B20=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10" t="str">
-        <f>IF(SUM(C23:E23)&gt;0,SUM(C23:E23),"")</f>
-        <v/>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f>IF(A19=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>IF(B20=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="22">
         <f>CEILING(CastleLevel,5)+4+IF(CEILING(CastleLevel,5)+4-CastleLevel&gt;5,-5,0)</f>
         <v>49</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="C25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="31" t="str">
-        <f>IF(SUM(C24:E24)&gt;0,SUM(C24:E24),"")</f>
-        <v/>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f>IF(A24=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="28" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>IF(B25=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="26" t="str">
-        <f>IF(SUM(C25:E25)&gt;0,SUM(C25:E25),"")</f>
-        <v/>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f>IF(A24=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f>IF(B25=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26" t="str">
-        <f>IF(SUM(C26:E26)&gt;0,SUM(C26:E26),"")</f>
-        <v/>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f>IF(A24=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="28" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>IF(B25=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="26" t="str">
-        <f>IF(SUM(C27:E27)&gt;0,SUM(C27:E27),"")</f>
-        <v/>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f>IF(A24=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="24" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f>IF(B25=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22" t="str">
-        <f>IF(SUM(C28:E28)&gt;0,SUM(C28:E28),"")</f>
-        <v/>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f>IF(A24=CastleLevel+1,"&lt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f>IF(B25=CastleLevel+1,"&lt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="32">
         <f>CEILING(CastleLevel,5)+5+IF(CEILING(CastleLevel,5)+5-CastleLevel&gt;5,-5,0)</f>
         <v>45</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="C30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="19">
+      <c r="D30" s="34">
         <v>24.8</v>
       </c>
-      <c r="D29" s="19">
+      <c r="E30" s="34">
         <v>37.200000000000003</v>
       </c>
-      <c r="E29" s="19">
+      <c r="F30" s="34">
         <v>24.8</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="18">
-        <f>IF(SUM(C29:E29)&gt;0,SUM(C29:E29),"")</f>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35">
+        <f t="shared" si="0"/>
         <v>86.8</v>
       </c>
-      <c r="H29" s="1" t="str">
-        <f>IF(A29=CastleLevel+1,"&lt;","")</f>
+      <c r="I30" s="1" t="str">
+        <f>IF(B30=CastleLevel+1,"&lt;","")</f>
         <v>&lt;</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="36"/>
+      <c r="C31" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="15">
+      <c r="D31" s="38">
         <v>24.8</v>
       </c>
-      <c r="D30" s="15">
+      <c r="E31" s="38">
         <v>49.6</v>
       </c>
-      <c r="E30" s="15">
+      <c r="F31" s="38">
         <v>41.3</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14">
-        <f>IF(SUM(C30:E30)&gt;0,SUM(C30:E30),"")</f>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39">
+        <f t="shared" si="0"/>
         <v>115.7</v>
       </c>
-      <c r="H30" s="1" t="str">
-        <f>IF(A29=CastleLevel+1,"&lt;","")</f>
+      <c r="I31" s="1" t="str">
+        <f>IF(B30=CastleLevel+1,"&lt;","")</f>
         <v>&lt;</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="36"/>
+      <c r="C32" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="15">
+      <c r="D32" s="38">
         <v>32</v>
       </c>
-      <c r="D31" s="15">
+      <c r="E32" s="38">
         <v>25.6</v>
       </c>
-      <c r="E31" s="15">
+      <c r="F32" s="38">
         <v>32</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="14">
-        <f>IF(SUM(C31:E31)&gt;0,SUM(C31:E31),"")</f>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39">
+        <f t="shared" si="0"/>
         <v>89.6</v>
       </c>
-      <c r="H31" s="1" t="str">
-        <f>IF(A29=CastleLevel+1,"&lt;","")</f>
+      <c r="I32" s="1" t="str">
+        <f>IF(B30=CastleLevel+1,"&lt;","")</f>
         <v>&lt;</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="41"/>
+      <c r="C33" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="11">
+      <c r="D33" s="43">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D32" s="11">
+      <c r="E33" s="43">
         <v>27.5</v>
       </c>
-      <c r="E32" s="11">
+      <c r="F33" s="43">
         <v>27.5</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G33" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="10">
-        <f>IF(SUM(C32:E32)&gt;0,SUM(C32:E32),"")</f>
+      <c r="H33" s="44">
+        <f t="shared" si="0"/>
         <v>64.2</v>
       </c>
-      <c r="H32" s="1" t="str">
-        <f>IF(A29=CastleLevel+1,"&lt;","")</f>
+      <c r="I33" s="1" t="str">
+        <f>IF(B30=CastleLevel+1,"&lt;","")</f>
         <v>&lt;</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="1" t="str">
-        <f>IF(A29=CastleLevel+1,"&lt;","")</f>
+    <row r="34" spans="2:9" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="1" t="str">
+        <f>IF(B30=CastleLevel+1,"&lt;","")</f>
         <v>&lt;</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="5">
-        <f t="array" ref="C34">SUM(IF($F8:$F33&lt;&gt;"",C8:C33,0))</f>
+      <c r="D35" s="47">
+        <f t="array" ref="D35">SUM(IF($G9:$G34&lt;&gt;"",D9:D34,0))</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="D34" s="5">
-        <f t="array" ref="D34">SUM(IF($F8:$F33&lt;&gt;"",D8:D33,0))</f>
+      <c r="E35" s="47">
+        <f t="array" ref="E35">SUM(IF($G9:$G34&lt;&gt;"",E9:E34,0))</f>
         <v>27.5</v>
       </c>
-      <c r="E34" s="5">
-        <f t="array" ref="E34">SUM(IF($F8:$F33&lt;&gt;"",E8:E33,0))</f>
+      <c r="F35" s="47">
+        <f t="array" ref="F35">SUM(IF($G9:$G34&lt;&gt;"",F9:F34,0))</f>
         <v>27.5</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="3">
-        <f>C7-C34</f>
+      <c r="D36" s="48">
+        <f>D8-D35</f>
         <v>-3.1999999999999993</v>
       </c>
-      <c r="D35" s="3">
-        <f>D7-D34</f>
+      <c r="E36" s="48">
+        <f>E8-E35</f>
         <v>-14.1</v>
       </c>
-      <c r="E35" s="3">
-        <f>E7-E34</f>
+      <c r="F36" s="48">
+        <f>F8-F35</f>
         <v>-21.5</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <conditionalFormatting sqref="C9:E34">
+  <conditionalFormatting sqref="D10:F35">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>C$7&gt;=C9</formula>
+      <formula>D$8&gt;=D10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>C$2&gt;=C9</formula>
+      <formula>D$3&gt;=D10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
